--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>Báo cáo bán hàng</t>
-  </si>
-  <si>
-    <t>Ngày báo cáo: 06/05/2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>Báo cáo bán hàng của tất cả cửa hàng</t>
+  </si>
+  <si>
+    <t>Ngày báo cáo: 06/07/2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -71,157 +71,259 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>ORDER.N019-2</t>
+    <t>ORDER.N00-17</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>Mang về</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/07/2022</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
+  </si>
+  <si>
+    <t>HP Lạch Tray</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>936.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-18</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -07/10/2022</t>
+  </si>
+  <si>
+    <t>HP Cát Bi Plaza</t>
+  </si>
+  <si>
+    <t>588.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-3</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t>Tại cửa hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -09/11/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-8</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/17/2022</t>
+  </si>
+  <si>
+    <t>HP Cầu Đất 2</t>
+  </si>
+  <si>
+    <t>ORDER.N00-9</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -09/23/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>ORDER.N00-10</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>HP Aeon Mall Lê Chân</t>
+  </si>
+  <si>
+    <t>ORDER.N00-7</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/05/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Phú</t>
+  </si>
+  <si>
+    <t>ORDER.N00-22</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -01/01/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -09/01/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-27</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/03/2022</t>
+  </si>
+  <si>
+    <t>696.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-23</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -10/10/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-14</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -08/23/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -08/11/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -07/20/2022</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -02/07/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -11/05/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-6</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -01/17/2022</t>
+  </si>
+  <si>
+    <t>888.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-1</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/14/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -11/15/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-24</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -11/13/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-19</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/20/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-4</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -09/07/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-21</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/11/2022</t>
+  </si>
+  <si>
+    <t>828.000.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -08/20/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -08/18/2022</t>
+  </si>
+  <si>
+    <t>228.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-13</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -02/24/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-11</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/08/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/09/2022</t>
+  </si>
+  <si>
+    <t>420.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-20</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/18/2022</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -07/21/2022</t>
+  </si>
+  <si>
+    <t>1.308.000.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -10/20/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N028-7</t>
   </si>
   <si>
     <t>Nam Phuong</t>
   </si>
   <si>
-    <t>06/02/2022</t>
-  </si>
-  <si>
-    <t>Tại cửa hàng</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -6/2/2022</t>
-  </si>
-  <si>
-    <t>Chuyển khoản</t>
-  </si>
-  <si>
     <t>HP Đỗ Nhuận</t>
   </si>
   <si>
     <t>10.000</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>68.000</t>
   </si>
   <si>
     <t>58.000</t>
   </si>
   <si>
-    <t>ORDER.N031-2</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Tiền mặt</t>
-  </si>
-  <si>
-    <t>HP Aeon Mall Lê Chân</t>
-  </si>
-  <si>
-    <t>-600.000</t>
-  </si>
-  <si>
-    <t>600.000</t>
-  </si>
-  <si>
-    <t>ORDER.N053-2</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>Mang về</t>
-  </si>
-  <si>
-    <t>70.000</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>69.000</t>
-  </si>
-  <si>
-    <t>ORDER.N056-2</t>
-  </si>
-  <si>
-    <t>80.000</t>
-  </si>
-  <si>
-    <t>6.000</t>
-  </si>
-  <si>
-    <t>74.000</t>
-  </si>
-  <si>
-    <t>ORDER.N03-2</t>
-  </si>
-  <si>
-    <t>40.000</t>
-  </si>
-  <si>
-    <t>ORDER.N05-2</t>
-  </si>
-  <si>
-    <t>ORDER.N020-2</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>ORDER.N038-2</t>
-  </si>
-  <si>
-    <t>50.000</t>
-  </si>
-  <si>
-    <t>49.000</t>
-  </si>
-  <si>
-    <t>ORDER.N028-3</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>61.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-3</t>
-  </si>
-  <si>
-    <t>ORDER.N013-3</t>
-  </si>
-  <si>
-    <t>ORDER.N014-3</t>
-  </si>
-  <si>
-    <t>176.000</t>
-  </si>
-  <si>
-    <t>127.000</t>
-  </si>
-  <si>
-    <t>ORDER.N025-3</t>
-  </si>
-  <si>
-    <t>ORDER.N01-5</t>
-  </si>
-  <si>
-    <t>06/05/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N04-5</t>
-  </si>
-  <si>
-    <t>2.000</t>
-  </si>
-  <si>
-    <t>78.000</t>
-  </si>
-  <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>1.431.000</t>
+    <t>8.352.058.000</t>
   </si>
 </sst>
 </file>
@@ -339,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +550,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -472,22 +574,22 @@
         <v>26</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q6" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -495,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>21</v>
@@ -510,37 +612,34 @@
         <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -548,52 +647,49 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -601,46 +697,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="K9" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -648,46 +747,49 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -695,46 +797,49 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -742,46 +847,49 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G12" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -789,46 +897,49 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="0">
+        <v>712</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -836,46 +947,49 @@
         <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -883,46 +997,49 @@
         <v>9</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G15" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -930,46 +1047,49 @@
         <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -977,46 +1097,49 @@
         <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1024,46 +1147,49 @@
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1071,46 +1197,49 @@
         <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1118,46 +1247,49 @@
         <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1165,77 +1297,880 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="0">
+        <v>812</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="0">
+        <v>531</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="0">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="H22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>17</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="0">
+        <v>144</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0">
+        <v>800</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>19</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0">
+        <v>758</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>20</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="0">
+        <v>634</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="0">
+        <v>266</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="0">
+        <v>181</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>23</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="0">
+        <v>657</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>24</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="C30" s="0">
+        <v>417</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="0" t="s">
+      <c r="G30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
         <v>25</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="0">
+        <v>341</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="0">
+        <v>730</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
         <v>27</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="0" t="s">
+      <c r="B33" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="0">
+        <v>213</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>28</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="0">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>29</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="0">
         <v>43</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="6" t="s">
-        <v>69</v>
+      <c r="D35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>30</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="0">
+        <v>854</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>31</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="0">
+        <v>15</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="Q23:Q23"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="Q39:Q39"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Báo cáo bán hàng của tất cả cửa hàng</t>
   </si>
   <si>
-    <t>Ngày báo cáo: 06/07/2022</t>
+    <t>Ngày báo cáo: 06/10/2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -140,22 +140,25 @@
     <t>HP Trần Quang Khải</t>
   </si>
   <si>
+    <t>ORDER.N00-7</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/05/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Phú</t>
+  </si>
+  <si>
     <t>ORDER.N00-10</t>
   </si>
   <si>
-    <t>06/02/2022</t>
-  </si>
-  <si>
     <t>HP Aeon Mall Lê Chân</t>
   </si>
   <si>
-    <t>ORDER.N00-7</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/05/2022</t>
-  </si>
-  <si>
-    <t>HP Trần Phú</t>
+    <t>Đơn hàng ngày -09/01/2022</t>
   </si>
   <si>
     <t>ORDER.N00-22</t>
@@ -164,9 +167,6 @@
     <t>Đơn hàng ngày -01/01/2022</t>
   </si>
   <si>
-    <t>Đơn hàng ngày -09/01/2022</t>
-  </si>
-  <si>
     <t>ORDER.N00-27</t>
   </si>
   <si>
@@ -200,10 +200,16 @@
     <t>06/04/2022</t>
   </si>
   <si>
+    <t>Đơn hàng ngày -11/05/2022</t>
+  </si>
+  <si>
     <t>Đơn hàng ngày -02/07/2022</t>
   </si>
   <si>
-    <t>Đơn hàng ngày -11/05/2022</t>
+    <t>ORDER.N00-1</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/14/2022</t>
   </si>
   <si>
     <t>ORDER.N00-6</t>
@@ -215,48 +221,42 @@
     <t>888.000.000</t>
   </si>
   <si>
-    <t>ORDER.N00-1</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/14/2022</t>
-  </si>
-  <si>
     <t>Đơn hàng ngày -11/15/2022</t>
   </si>
   <si>
+    <t>ORDER.N00-19</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/20/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-4</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -09/07/2022</t>
+  </si>
+  <si>
     <t>ORDER.N00-24</t>
   </si>
   <si>
     <t>Đơn hàng ngày -11/13/2022</t>
   </si>
   <si>
-    <t>ORDER.N00-19</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -03/20/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-4</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -09/07/2022</t>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -08/20/2022</t>
   </si>
   <si>
     <t>ORDER.N00-21</t>
   </si>
   <si>
-    <t>06/05/2022</t>
-  </si>
-  <si>
     <t>Đơn hàng ngày -03/11/2022</t>
   </si>
   <si>
     <t>828.000.000</t>
   </si>
   <si>
-    <t>Đơn hàng ngày -08/20/2022</t>
-  </si>
-  <si>
     <t>Đơn hàng ngày -08/18/2022</t>
   </si>
   <si>
@@ -320,10 +320,163 @@
     <t>58.000</t>
   </si>
   <si>
+    <t>ORDER.N052-8</t>
+  </si>
+  <si>
+    <t>linhh</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>108.000</t>
+  </si>
+  <si>
+    <t>-10.000</t>
+  </si>
+  <si>
+    <t>118.000</t>
+  </si>
+  <si>
+    <t>ORDER.N056-8</t>
+  </si>
+  <si>
+    <t>80.000</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>78.000</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -10/19/2022</t>
+  </si>
+  <si>
+    <t>468.000.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-15</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -01/04/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/15/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -01/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -11/21/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N037-9</t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>ORDER.N038-9</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/12/2022</t>
+  </si>
+  <si>
+    <t>624.000.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -02/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -07/04/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N019-10</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>39.000</t>
+  </si>
+  <si>
+    <t>ORDER.N010-10</t>
+  </si>
+  <si>
+    <t>700.000</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>676.000</t>
+  </si>
+  <si>
+    <t>ORDER.N014-10</t>
+  </si>
+  <si>
+    <t>4.000.000</t>
+  </si>
+  <si>
+    <t>3.900.000</t>
+  </si>
+  <si>
+    <t>ORDER.N016-10</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>6.000.000</t>
+  </si>
+  <si>
+    <t>300.000</t>
+  </si>
+  <si>
+    <t>5.700.000</t>
+  </si>
+  <si>
+    <t>Ship đồ</t>
+  </si>
+  <si>
+    <t>ORDER.N026-10</t>
+  </si>
+  <si>
+    <t>ORDER.N027-10</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>49.000</t>
+  </si>
+  <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>8.352.058.000</t>
+    <t>11.572.554.000</t>
   </si>
 </sst>
 </file>
@@ -441,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,25 +953,25 @@
         <v>42</v>
       </c>
       <c r="C11" s="0">
-        <v>670</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>26</v>
@@ -827,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>26</v>
@@ -836,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +1000,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
-        <v>57</v>
+        <v>670</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>24</v>
@@ -877,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>26</v>
@@ -886,10 +1039,10 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -897,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
-        <v>712</v>
+        <v>780</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>33</v>
@@ -912,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>24</v>
@@ -947,10 +1100,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
-        <v>780</v>
+        <v>712</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>33</v>
@@ -1118,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>26</v>
@@ -1168,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>26</v>
@@ -1247,19 +1400,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0">
-        <v>947</v>
+        <v>812</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>62</v>
@@ -1268,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>26</v>
@@ -1277,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>26</v>
@@ -1286,10 +1439,10 @@
         <v>26</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1297,19 +1450,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0">
-        <v>812</v>
+        <v>947</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>63</v>
@@ -1318,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>26</v>
@@ -1327,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>26</v>
@@ -1336,10 +1489,10 @@
         <v>26</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -1350,16 +1503,16 @@
         <v>64</v>
       </c>
       <c r="C22" s="0">
-        <v>531</v>
+        <v>144</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>65</v>
@@ -1368,7 +1521,7 @@
         <v>24</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>26</v>
@@ -1377,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>26</v>
@@ -1386,10 +1539,10 @@
         <v>26</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1397,38 +1550,38 @@
         <v>17</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="0">
-        <v>144</v>
+        <v>531</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="N23" s="0" t="s">
         <v>26</v>
       </c>
@@ -1436,10 +1589,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1447,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>800</v>
@@ -1468,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>26</v>
@@ -1500,7 +1653,7 @@
         <v>70</v>
       </c>
       <c r="C25" s="0">
-        <v>758</v>
+        <v>634</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>33</v>
@@ -1518,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>26</v>
@@ -1550,7 +1703,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="0">
-        <v>634</v>
+        <v>266</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>33</v>
@@ -1600,7 +1753,7 @@
         <v>74</v>
       </c>
       <c r="C27" s="0">
-        <v>266</v>
+        <v>758</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>33</v>
@@ -1618,7 +1771,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>26</v>
@@ -1647,28 +1800,28 @@
         <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
-        <v>181</v>
+        <v>657</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>26</v>
@@ -1677,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>26</v>
@@ -1686,10 +1839,10 @@
         <v>26</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -1697,38 +1850,38 @@
         <v>23</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C29" s="0">
-        <v>657</v>
+        <v>181</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="N29" s="0" t="s">
         <v>26</v>
       </c>
@@ -1736,10 +1889,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -1747,7 +1900,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="0">
         <v>417</v>
@@ -1756,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>22</v>
@@ -1897,7 +2050,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="0">
         <v>213</v>
@@ -1918,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>26</v>
@@ -1968,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>26</v>
@@ -1997,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="0">
         <v>43</v>
@@ -2018,7 +2171,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>26</v>
@@ -2047,7 +2200,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0">
         <v>854</v>
@@ -2142,35 +2295,976 @@
         <v>101</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>32</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="6" t="s">
+      <c r="A39" s="0">
+        <v>33</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>103</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>34</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0">
+        <v>835</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>35</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="0">
+        <v>665</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>36</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="0">
+        <v>965</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>37</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="0">
+        <v>312</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>38</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="0">
+        <v>326</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>39</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="0">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>40</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>41</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="0">
+        <v>863</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>42</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="0">
+        <v>37</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>43</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="0">
+        <v>732</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>44</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="0">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>45</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="0">
+        <v>12</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>46</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="0">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>47</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="0">
+        <v>2</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>48</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="0">
+        <v>2</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>49</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="0">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>50</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="0">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="Q39:Q39"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="Q58:Q58"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Báo cáo bán hàng của cửa hàng</t>
   </si>
   <si>
-    <t>Ngày báo cáo: 06/11/2022</t>
+    <t>Ngày báo cáo: 06/14/2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -74,16 +74,16 @@
     <t>ORDER.N00-4</t>
   </si>
   <si>
-    <t>Phuong 144</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
+    <t>Phuong 698</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
   </si>
   <si>
     <t>Tại cửa hàng</t>
   </si>
   <si>
-    <t>Đơn hàng ngày -04/05/2022</t>
+    <t>Đơn hàng ngày -09/20/2022</t>
   </si>
   <si>
     <t>Chuyển khoản</t>
@@ -95,85 +95,160 @@
     <t/>
   </si>
   <si>
+    <t>49.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-11</t>
+  </si>
+  <si>
+    <t>Long 127</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>Mang về</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/26/2022</t>
+  </si>
+  <si>
+    <t>128.000</t>
+  </si>
+  <si>
+    <t>Phuong 580</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -02/02/2022</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-24</t>
+  </si>
+  <si>
+    <t>Long 795</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -02/19/2022</t>
+  </si>
+  <si>
+    <t>110.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-12</t>
+  </si>
+  <si>
+    <t>Phuong 226</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -07/17/2022</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>Phuong 904</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/22/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-21</t>
+  </si>
+  <si>
+    <t>Phuong 242</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/05/2022</t>
+  </si>
+  <si>
     <t>58.000</t>
   </si>
   <si>
-    <t>ORDER.N00-13</t>
-  </si>
-  <si>
-    <t>Phuong 918</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -02/09/2022</t>
-  </si>
-  <si>
-    <t>19.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-22</t>
-  </si>
-  <si>
-    <t>Long 439</t>
-  </si>
-  <si>
-    <t>06/07/2022</t>
-  </si>
-  <si>
-    <t>Mang về</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -10/10/2022</t>
-  </si>
-  <si>
-    <t>50.000</t>
+    <t>ORDER.N00-9</t>
+  </si>
+  <si>
+    <t>Phuong 838</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -03/15/2022</t>
+  </si>
+  <si>
+    <t>39.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-26</t>
+  </si>
+  <si>
+    <t>Phuong 182</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -01/21/2022</t>
+  </si>
+  <si>
+    <t>45.000</t>
   </si>
   <si>
     <t>ORDER.N00-3</t>
   </si>
   <si>
-    <t>Phuong 710</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -11/24/2022</t>
-  </si>
-  <si>
-    <t>269.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-21</t>
-  </si>
-  <si>
-    <t>Phuong 106</t>
-  </si>
-  <si>
-    <t>06/09/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/27/2022</t>
-  </si>
-  <si>
-    <t>35.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-25</t>
-  </si>
-  <si>
-    <t>Long 693</t>
-  </si>
-  <si>
-    <t>06/10/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -02/25/2022</t>
-  </si>
-  <si>
-    <t>128.000</t>
+    <t>Long 985</t>
+  </si>
+  <si>
+    <t>06/13/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -10/24/2022</t>
+  </si>
+  <si>
+    <t>82.000</t>
+  </si>
+  <si>
+    <t>ORDER.N046-13</t>
+  </si>
+  <si>
+    <t>Người dùng 20</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>Khách hàng số 46</t>
+  </si>
+  <si>
+    <t>450.000</t>
+  </si>
+  <si>
+    <t>ORDER.N047-13</t>
+  </si>
+  <si>
+    <t>580.000</t>
   </si>
   <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>559.000</t>
+    <t>1.681.000</t>
   </si>
 </sst>
 </file>
@@ -291,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +475,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0">
-        <v>144</v>
+        <v>698</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -450,19 +525,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="0">
-        <v>918</v>
+        <v>127</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>24</v>
@@ -477,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>26</v>
@@ -486,10 +561,10 @@
         <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -497,22 +572,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
-        <v>439</v>
+        <v>580</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>24</v>
@@ -527,7 +602,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>26</v>
@@ -536,10 +611,10 @@
         <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -547,19 +622,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0">
+        <v>795</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="0">
-        <v>710</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>40</v>
@@ -600,7 +675,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="0">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>43</v>
@@ -647,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0">
+        <v>904</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="0">
-        <v>693</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>24</v>
@@ -677,50 +752,350 @@
         <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="0">
+        <v>242</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>51</v>
+      <c r="E12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6" t="s">
-        <v>53</v>
+      <c r="A13" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="0">
+        <v>838</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="0">
+        <v>182</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="0">
+        <v>985</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="Q13:Q13"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="Q19:Q19"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>Báo cáo doanh số bán hàng cho tất cả cửa hàng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Báo cáo bán hàng của cửa hàng</t>
   </si>
   <si>
     <t>Ngày báo cáo: 06/14/2022</t>
@@ -23,36 +23,45 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Tên chi nhánh</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Thành phố</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Từ ngày</t>
-  </si>
-  <si>
-    <t>Đến ngày</t>
+    <t>Mã bán hàng</t>
+  </si>
+  <si>
+    <t>Số bàn</t>
+  </si>
+  <si>
+    <t>Nhân viên bán hàng</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>Kiểu hoá đơn</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Kiểu thanh toán</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Tên cửa hàng</t>
+  </si>
+  <si>
+    <t>Giảm giá theo khuyến mãi</t>
   </si>
   <si>
     <t>Giảm trừ</t>
   </si>
   <si>
-    <t>Giảm giá theo khuyến mãi</t>
+    <t>Tiền khách hàng đưa</t>
   </si>
   <si>
     <t>Tiền khách hàng nhận</t>
   </si>
   <si>
-    <t>Tiền khách hàng đưa</t>
-  </si>
-  <si>
     <t>Phí vận chuyển</t>
   </si>
   <si>
@@ -62,94 +71,307 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>HP Đỗ Nhuận</t>
-  </si>
-  <si>
-    <t>Thửa đất số 172A, 3 Đỗ Nhuận, Đằng Giang, Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>Hải phòng</t>
-  </si>
-  <si>
-    <t>0702264274</t>
+    <t>ORDER.N00-15</t>
+  </si>
+  <si>
+    <t>Nguyễn 90</t>
   </si>
   <si>
     <t>06/01/2022</t>
   </si>
   <si>
+    <t>Tại cửa hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/14/2022</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
+  </si>
+  <si>
+    <t>HP Cát Bi Plaza</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>69.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-1</t>
+  </si>
+  <si>
+    <t>Nguyễn 85</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/14/2022</t>
+  </si>
+  <si>
+    <t>109.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-9</t>
+  </si>
+  <si>
+    <t>Nguyễn 14</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/09/2022</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-3</t>
+  </si>
+  <si>
+    <t>Nguyễn 69</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/15/2022</t>
+  </si>
+  <si>
+    <t>39.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/12/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-11</t>
+  </si>
+  <si>
+    <t>Nguyễn 86</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/17/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 36</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/15/2022</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-7</t>
+  </si>
+  <si>
+    <t>Nguyễn 23</t>
+  </si>
+  <si>
+    <t>Mang về</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/01/2022</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>102.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-12</t>
+  </si>
+  <si>
+    <t>Nguyễn 4</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/01/2022</t>
+  </si>
+  <si>
+    <t>49.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-5</t>
+  </si>
+  <si>
+    <t>Nguyễn 70</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/19/2022</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-6</t>
+  </si>
+  <si>
+    <t>Nguyễn 99</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/13/2022</t>
+  </si>
+  <si>
+    <t>74.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-8</t>
+  </si>
+  <si>
+    <t>Nguyễn 49</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/04/2022</t>
+  </si>
+  <si>
+    <t>128.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 61</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/13/2022</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-17</t>
+  </si>
+  <si>
+    <t>76.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-16</t>
+  </si>
+  <si>
+    <t>Nguyễn 41</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/14/2022</t>
+  </si>
+  <si>
+    <t>226.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 26</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/05/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 65</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 58</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/05/2022</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 89</t>
+  </si>
+  <si>
+    <t>06/11/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-10</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-19</t>
+  </si>
+  <si>
+    <t>Nguyễn 63</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/16/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 47</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/03/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 15</t>
+  </si>
+  <si>
+    <t>06/13/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/16/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 91</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/11/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 92</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/10/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-4</t>
+  </si>
+  <si>
+    <t>Nguyễn 9</t>
+  </si>
+  <si>
     <t>06/14/2022</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>31.900.200.000</t>
-  </si>
-  <si>
-    <t>31.900.190.000</t>
-  </si>
-  <si>
-    <t>HP Trần Phú</t>
-  </si>
-  <si>
-    <t>15 Trần Phú, Lương Khánh Thiện, Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>49.551.357.000</t>
-  </si>
-  <si>
-    <t>HP Trần Quang Khải</t>
-  </si>
-  <si>
-    <t>17 Trần Quang Khải, Q. Hồng Bàng, Hải Phòng</t>
-  </si>
-  <si>
-    <t>1.681.000</t>
-  </si>
-  <si>
-    <t>HP Cát Bi Plaza</t>
-  </si>
-  <si>
-    <t>01 Lê Hồng Phong, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>802.000</t>
-  </si>
-  <si>
-    <t>HP Aeon Mall Lê Chân</t>
-  </si>
-  <si>
-    <t>Tầng 01 Aeon Mall, Q.Lê Chân, Hải Phòng</t>
-  </si>
-  <si>
-    <t>1.106.000</t>
-  </si>
-  <si>
-    <t>HP Lạch Tray</t>
-  </si>
-  <si>
-    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>2.071.000</t>
-  </si>
-  <si>
-    <t>HP Cầu Đất 2</t>
-  </si>
-  <si>
-    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>698.000</t>
+    <t>Nguyễn 54</t>
+  </si>
+  <si>
+    <t>58.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 55</t>
+  </si>
+  <si>
+    <t>ORDER.N025-14</t>
+  </si>
+  <si>
+    <t>Nguyễn 10</t>
+  </si>
+  <si>
+    <t>Khách hàng số 97</t>
+  </si>
+  <si>
+    <t>73.500.000</t>
   </si>
   <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>81.457.905.000</t>
+    <t>75.391.000</t>
   </si>
 </sst>
 </file>
@@ -267,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,341 +580,1495 @@
       <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="O5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="0">
+        <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N10" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="0">
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>7</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="0">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>17</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="H24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
         <v>19</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="B25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
         <v>20</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="B26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
         <v>21</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="G27" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
         <v>22</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="B28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="0" t="s">
+      <c r="G28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>23</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="0">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6" t="s">
-        <v>45</v>
+      <c r="G29" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>24</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>25</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="0">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="0">
+        <v>3</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>27</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>28</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="N14:N14"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="Q36:Q36"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Báo cáo bán hàng của cửa hàng</t>
   </si>
   <si>
-    <t>Ngày báo cáo: 06/14/2022</t>
+    <t>Ngày báo cáo: 06/15/2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -74,304 +74,346 @@
     <t>ORDER.N00-15</t>
   </si>
   <si>
-    <t>Nguyễn 90</t>
+    <t>Nguyễn 28</t>
   </si>
   <si>
     <t>06/01/2022</t>
   </si>
   <si>
+    <t>Mang về</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/14/2022</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>HP Cầu Đất 2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>102.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-13</t>
+  </si>
+  <si>
+    <t>Nguyễn 99</t>
+  </si>
+  <si>
     <t>Tại cửa hàng</t>
   </si>
   <si>
+    <t>Đơn hàng ngày -06/13/2022</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
+  </si>
+  <si>
+    <t>74.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-5</t>
+  </si>
+  <si>
+    <t>Nguyễn 74</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/17/2022</t>
+  </si>
+  <si>
+    <t>230.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-19</t>
+  </si>
+  <si>
+    <t>Nguyễn 51</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/10/2022</t>
+  </si>
+  <si>
+    <t>128.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-3</t>
+  </si>
+  <si>
+    <t>Nguyễn 37</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/05/2022</t>
+  </si>
+  <si>
+    <t>58.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-17</t>
+  </si>
+  <si>
+    <t>Nguyễn 64</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/11/2022</t>
+  </si>
+  <si>
+    <t>19.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 53</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/04/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-14</t>
+  </si>
+  <si>
+    <t>Nguyễn 10</t>
+  </si>
+  <si>
+    <t>110.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-1</t>
+  </si>
+  <si>
+    <t>Nguyễn 96</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/02/2022</t>
+  </si>
+  <si>
+    <t>28.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-10</t>
+  </si>
+  <si>
+    <t>Nguyễn 42</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/06/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 49</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/16/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-12</t>
+  </si>
+  <si>
+    <t>Nguyễn 89</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/15/2022</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 25</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/15/2022</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>160.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 23</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/01/2022</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-18</t>
+  </si>
+  <si>
+    <t>Nguyễn 54</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 5</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/09/2022</t>
+  </si>
+  <si>
+    <t>92.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/10/2022</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-8</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/06/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 79</t>
+  </si>
+  <si>
     <t>Đơn hàng ngày -06/14/2022</t>
   </si>
   <si>
-    <t>Chuyển khoản</t>
-  </si>
-  <si>
-    <t>HP Cát Bi Plaza</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>69.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-1</t>
-  </si>
-  <si>
-    <t>Nguyễn 85</t>
+    <t>170.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-7</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/18/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 61</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/15/2022</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-16</t>
+  </si>
+  <si>
+    <t>Nguyễn 21</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/17/2022</t>
+  </si>
+  <si>
+    <t>168.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-6</t>
+  </si>
+  <si>
+    <t>Nguyễn 8</t>
   </si>
   <si>
     <t>Đơn hàng ngày -04/14/2022</t>
   </si>
   <si>
-    <t>109.000</t>
+    <t>49.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-2</t>
+  </si>
+  <si>
+    <t>Nguyễn 19</t>
+  </si>
+  <si>
+    <t>70.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 17</t>
+  </si>
+  <si>
+    <t>Nguyễn 80</t>
+  </si>
+  <si>
+    <t>Nguyễn 14</t>
+  </si>
+  <si>
+    <t>06/13/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/01/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 22</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/07/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/06/2022</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/08/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 36</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/19/2022</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 48</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/04/2022</t>
   </si>
   <si>
     <t>ORDER.N00-9</t>
   </si>
   <si>
-    <t>Nguyễn 14</t>
-  </si>
-  <si>
-    <t>06/02/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/09/2022</t>
-  </si>
-  <si>
-    <t>40.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-3</t>
-  </si>
-  <si>
-    <t>Nguyễn 69</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/15/2022</t>
-  </si>
-  <si>
-    <t>39.000</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/12/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-11</t>
-  </si>
-  <si>
-    <t>Nguyễn 86</t>
-  </si>
-  <si>
-    <t>06/04/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/17/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 36</t>
-  </si>
-  <si>
-    <t>06/06/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/15/2022</t>
-  </si>
-  <si>
-    <t>54.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-7</t>
-  </si>
-  <si>
-    <t>Nguyễn 23</t>
-  </si>
-  <si>
-    <t>Mang về</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/01/2022</t>
-  </si>
-  <si>
-    <t>Tiền mặt</t>
-  </si>
-  <si>
-    <t>102.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-12</t>
-  </si>
-  <si>
-    <t>Nguyễn 4</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/01/2022</t>
-  </si>
-  <si>
-    <t>49.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-5</t>
-  </si>
-  <si>
-    <t>Nguyễn 70</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/19/2022</t>
-  </si>
-  <si>
-    <t>29.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-6</t>
-  </si>
-  <si>
-    <t>Nguyễn 99</t>
-  </si>
-  <si>
-    <t>06/08/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/13/2022</t>
-  </si>
-  <si>
-    <t>74.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-8</t>
-  </si>
-  <si>
-    <t>Nguyễn 49</t>
-  </si>
-  <si>
-    <t>06/09/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/04/2022</t>
-  </si>
-  <si>
-    <t>128.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 61</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/13/2022</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-17</t>
-  </si>
-  <si>
-    <t>76.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-16</t>
-  </si>
-  <si>
-    <t>Nguyễn 41</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/14/2022</t>
-  </si>
-  <si>
-    <t>226.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 26</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/05/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 65</t>
-  </si>
-  <si>
-    <t>50.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 58</t>
-  </si>
-  <si>
-    <t>06/10/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/05/2022</t>
-  </si>
-  <si>
-    <t>36.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 89</t>
-  </si>
-  <si>
-    <t>06/11/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-10</t>
-  </si>
-  <si>
-    <t>06/12/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-19</t>
-  </si>
-  <si>
-    <t>Nguyễn 63</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/16/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 47</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/03/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 15</t>
-  </si>
-  <si>
-    <t>06/13/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/16/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 91</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/11/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 92</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/10/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-4</t>
-  </si>
-  <si>
-    <t>Nguyễn 9</t>
-  </si>
-  <si>
-    <t>06/14/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 54</t>
-  </si>
-  <si>
-    <t>58.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 55</t>
-  </si>
-  <si>
-    <t>ORDER.N025-14</t>
-  </si>
-  <si>
-    <t>Nguyễn 10</t>
-  </si>
-  <si>
-    <t>Khách hàng số 97</t>
-  </si>
-  <si>
-    <t>73.500.000</t>
+    <t>Nguyễn 72</t>
+  </si>
+  <si>
+    <t>Nguyễn 93</t>
+  </si>
+  <si>
+    <t>06/15/2022</t>
+  </si>
+  <si>
+    <t>68.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 7</t>
   </si>
   <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>75.391.000</t>
+    <t>3.429.000</t>
   </si>
 </sst>
 </file>
@@ -489,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -648,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -657,13 +699,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>25</v>
@@ -675,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>26</v>
@@ -684,10 +726,10 @@
         <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -695,26 +737,26 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
@@ -725,7 +767,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>26</v>
@@ -734,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -745,22 +787,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>24</v>
@@ -775,7 +817,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>26</v>
@@ -784,10 +826,10 @@
         <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -795,25 +837,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>25</v>
@@ -825,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>26</v>
@@ -834,10 +876,10 @@
         <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -845,25 +887,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>25</v>
@@ -875,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>26</v>
@@ -884,10 +926,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -895,22 +937,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>24</v>
@@ -925,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>26</v>
@@ -934,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -945,25 +987,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>25</v>
@@ -998,22 +1040,22 @@
         <v>57</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>25</v>
@@ -1048,19 +1090,19 @@
         <v>61</v>
       </c>
       <c r="C15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>24</v>
@@ -1075,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>26</v>
@@ -1084,10 +1126,10 @@
         <v>26</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1095,22 +1137,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="0">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="0">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>24</v>
@@ -1125,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>26</v>
@@ -1134,10 +1176,10 @@
         <v>26</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1145,25 +1187,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>25</v>
@@ -1175,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>26</v>
@@ -1184,10 +1226,10 @@
         <v>26</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1195,26 +1237,26 @@
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="J18" s="0" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>26</v>
@@ -1234,10 +1276,10 @@
         <v>26</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -1245,25 +1287,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>25</v>
@@ -1275,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>26</v>
@@ -1284,10 +1326,10 @@
         <v>26</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -1295,25 +1337,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>25</v>
@@ -1325,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>26</v>
@@ -1334,10 +1376,10 @@
         <v>26</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1345,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>25</v>
@@ -1375,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>26</v>
@@ -1384,10 +1426,10 @@
         <v>26</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1395,25 +1437,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C22" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>25</v>
@@ -1425,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>26</v>
@@ -1434,10 +1476,10 @@
         <v>26</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1445,25 +1487,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>25</v>
@@ -1475,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>26</v>
@@ -1484,10 +1526,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1495,25 +1537,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>25</v>
@@ -1525,7 +1567,7 @@
         <v>26</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>26</v>
@@ -1534,10 +1576,10 @@
         <v>26</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1545,38 +1587,38 @@
         <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="N25" s="0" t="s">
         <v>26</v>
       </c>
@@ -1584,10 +1626,10 @@
         <v>26</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1595,25 +1637,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>25</v>
@@ -1625,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>26</v>
@@ -1634,10 +1676,10 @@
         <v>26</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1645,25 +1687,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C27" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>25</v>
@@ -1675,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>26</v>
@@ -1684,10 +1726,10 @@
         <v>26</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -1695,22 +1737,22 @@
         <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>24</v>
@@ -1725,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>26</v>
@@ -1734,10 +1776,10 @@
         <v>26</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1745,38 +1787,38 @@
         <v>23</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C29" s="0">
         <v>3</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="N29" s="0" t="s">
         <v>26</v>
       </c>
@@ -1784,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1795,22 +1837,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C30" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>24</v>
@@ -1825,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>26</v>
@@ -1834,10 +1876,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -1845,22 +1887,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C31" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>24</v>
@@ -1875,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>26</v>
@@ -1884,10 +1926,10 @@
         <v>26</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1895,22 +1937,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C32" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>24</v>
@@ -1925,7 +1967,7 @@
         <v>26</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>26</v>
@@ -1934,10 +1976,10 @@
         <v>26</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -1945,25 +1987,25 @@
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0">
         <v>5</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>25</v>
@@ -1975,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>26</v>
@@ -1984,10 +2026,10 @@
         <v>26</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -1995,80 +2037,580 @@
         <v>28</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G34" s="0" t="s">
+        <v>115</v>
+      </c>
       <c r="H34" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>29</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="0">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="0" t="s">
+      <c r="H35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" s="0" t="s">
+      <c r="N35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="Q34" s="0" t="s">
+      <c r="Q35" s="0" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="0">
+        <v>30</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="0">
+        <v>4</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6" t="s">
+      <c r="H36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>31</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="0">
+        <v>2</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>119</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>32</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="0">
+        <v>3</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>33</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="0">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>34</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="0">
+        <v>3</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>35</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>36</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>37</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>38</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="0">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="Q36:Q36"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="Q46:Q46"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/TCH.BackendApi/Uploads/temp-order.xlsx
+++ b/TCH.BackendApi/Uploads/temp-order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Báo cáo bán hàng của cửa hàng</t>
   </si>
   <si>
-    <t>Ngày báo cáo: 06/15/2022</t>
+    <t>Ngày báo cáo: 06/16/2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -74,346 +74,373 @@
     <t>ORDER.N00-15</t>
   </si>
   <si>
-    <t>Nguyễn 28</t>
+    <t>Nguyễn 90</t>
   </si>
   <si>
     <t>06/01/2022</t>
   </si>
   <si>
+    <t>Tại cửa hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/14/2022</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
+  </si>
+  <si>
+    <t>HP Cát Bi Plaza</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>69.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-1</t>
+  </si>
+  <si>
+    <t>Nguyễn 85</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/14/2022</t>
+  </si>
+  <si>
+    <t>109.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-9</t>
+  </si>
+  <si>
+    <t>Nguyễn 14</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/09/2022</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-3</t>
+  </si>
+  <si>
+    <t>Nguyễn 69</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/15/2022</t>
+  </si>
+  <si>
+    <t>39.000</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/12/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-11</t>
+  </si>
+  <si>
+    <t>Nguyễn 86</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/17/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 36</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/15/2022</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-7</t>
+  </si>
+  <si>
+    <t>Nguyễn 23</t>
+  </si>
+  <si>
     <t>Mang về</t>
   </si>
   <si>
+    <t>Đơn hàng ngày -05/01/2022</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>102.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-12</t>
+  </si>
+  <si>
+    <t>Nguyễn 4</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/01/2022</t>
+  </si>
+  <si>
+    <t>49.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-5</t>
+  </si>
+  <si>
+    <t>Nguyễn 70</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/19/2022</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-6</t>
+  </si>
+  <si>
+    <t>Nguyễn 99</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/13/2022</t>
+  </si>
+  <si>
+    <t>74.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-8</t>
+  </si>
+  <si>
+    <t>Nguyễn 49</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/04/2022</t>
+  </si>
+  <si>
+    <t>128.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 61</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/13/2022</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-17</t>
+  </si>
+  <si>
+    <t>76.000</t>
+  </si>
+  <si>
+    <t>ORDER.N00-16</t>
+  </si>
+  <si>
+    <t>Nguyễn 41</t>
+  </si>
+  <si>
     <t>Đơn hàng ngày -05/14/2022</t>
   </si>
   <si>
-    <t>Tiền mặt</t>
-  </si>
-  <si>
-    <t>HP Cầu Đất 2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>102.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-13</t>
-  </si>
-  <si>
-    <t>Nguyễn 99</t>
-  </si>
-  <si>
-    <t>Tại cửa hàng</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/13/2022</t>
-  </si>
-  <si>
-    <t>Chuyển khoản</t>
-  </si>
-  <si>
-    <t>74.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-5</t>
-  </si>
-  <si>
-    <t>Nguyễn 74</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/17/2022</t>
-  </si>
-  <si>
-    <t>230.000</t>
+    <t>226.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 26</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/05/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 65</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 58</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/05/2022</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 89</t>
+  </si>
+  <si>
+    <t>06/11/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-10</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
   </si>
   <si>
     <t>ORDER.N00-19</t>
   </si>
   <si>
-    <t>Nguyễn 51</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/10/2022</t>
-  </si>
-  <si>
-    <t>128.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-3</t>
-  </si>
-  <si>
-    <t>Nguyễn 37</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/05/2022</t>
+    <t>Nguyễn 63</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/16/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 47</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/03/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 15</t>
+  </si>
+  <si>
+    <t>06/13/2022</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/16/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 91</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/11/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 92</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -06/10/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-4</t>
+  </si>
+  <si>
+    <t>Nguyễn 9</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>Nguyễn 54</t>
   </si>
   <si>
     <t>58.000</t>
   </si>
   <si>
-    <t>ORDER.N00-17</t>
-  </si>
-  <si>
-    <t>Nguyễn 64</t>
+    <t>Nguyễn 55</t>
+  </si>
+  <si>
+    <t>ORDER.N00-2</t>
+  </si>
+  <si>
+    <t>Nguyễn 77</t>
+  </si>
+  <si>
+    <t>06/15/2022</t>
+  </si>
+  <si>
+    <t>ORDER.N00-14</t>
+  </si>
+  <si>
+    <t>Nguyễn 94</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -05/02/2022</t>
+  </si>
+  <si>
+    <t>68.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 75</t>
   </si>
   <si>
     <t>Đơn hàng ngày -05/11/2022</t>
   </si>
   <si>
-    <t>19.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 53</t>
-  </si>
-  <si>
-    <t>06/05/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/04/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-14</t>
+    <t>110.000</t>
+  </si>
+  <si>
+    <t>ORDER.N014-15</t>
   </si>
   <si>
     <t>Nguyễn 10</t>
   </si>
   <si>
-    <t>110.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-1</t>
-  </si>
-  <si>
-    <t>Nguyễn 96</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/02/2022</t>
+    <t>29.250.000</t>
+  </si>
+  <si>
+    <t>ORDER.N020-15</t>
+  </si>
+  <si>
+    <t>8.190.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 16</t>
+  </si>
+  <si>
+    <t>06/16/2022</t>
+  </si>
+  <si>
+    <t>82.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 93</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/09/2022</t>
   </si>
   <si>
     <t>28.000</t>
   </si>
   <si>
-    <t>ORDER.N00-10</t>
-  </si>
-  <si>
-    <t>Nguyễn 42</t>
-  </si>
-  <si>
-    <t>06/06/2022</t>
+    <t>Nguyễn 44</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày -04/02/2022</t>
+  </si>
+  <si>
+    <t>120.000</t>
+  </si>
+  <si>
+    <t>Nguyễn 98</t>
   </si>
   <si>
     <t>Đơn hàng ngày -05/06/2022</t>
   </si>
   <si>
-    <t>Nguyễn 49</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/16/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-12</t>
-  </si>
-  <si>
-    <t>Nguyễn 89</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/15/2022</t>
-  </si>
-  <si>
-    <t>150.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 25</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/15/2022</t>
-  </si>
-  <si>
-    <t>06/07/2022</t>
-  </si>
-  <si>
     <t>160.000</t>
   </si>
   <si>
-    <t>Nguyễn 23</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/01/2022</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-18</t>
-  </si>
-  <si>
-    <t>Nguyễn 54</t>
-  </si>
-  <si>
-    <t>06/09/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 5</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/09/2022</t>
-  </si>
-  <si>
-    <t>92.000</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/10/2022</t>
-  </si>
-  <si>
-    <t>40.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-8</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/06/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 79</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/14/2022</t>
-  </si>
-  <si>
-    <t>170.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-7</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/18/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 61</t>
-  </si>
-  <si>
-    <t>06/10/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/15/2022</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-16</t>
-  </si>
-  <si>
-    <t>Nguyễn 21</t>
-  </si>
-  <si>
-    <t>06/12/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/17/2022</t>
-  </si>
-  <si>
-    <t>168.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-6</t>
-  </si>
-  <si>
-    <t>Nguyễn 8</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/14/2022</t>
-  </si>
-  <si>
-    <t>49.000</t>
-  </si>
-  <si>
-    <t>ORDER.N00-2</t>
-  </si>
-  <si>
-    <t>Nguyễn 19</t>
-  </si>
-  <si>
-    <t>70.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 17</t>
-  </si>
-  <si>
-    <t>Nguyễn 80</t>
-  </si>
-  <si>
-    <t>Nguyễn 14</t>
-  </si>
-  <si>
-    <t>06/13/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/01/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 22</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/07/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -06/06/2022</t>
-  </si>
-  <si>
-    <t>29.000</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -04/03/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/08/2022</t>
-  </si>
-  <si>
-    <t>Nguyễn 36</t>
-  </si>
-  <si>
-    <t>06/14/2022</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/19/2022</t>
-  </si>
-  <si>
-    <t>54.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 48</t>
-  </si>
-  <si>
-    <t>Đơn hàng ngày -05/04/2022</t>
-  </si>
-  <si>
-    <t>ORDER.N00-9</t>
-  </si>
-  <si>
-    <t>Nguyễn 72</t>
-  </si>
-  <si>
-    <t>Nguyễn 93</t>
-  </si>
-  <si>
-    <t>06/15/2022</t>
-  </si>
-  <si>
-    <t>68.000</t>
-  </si>
-  <si>
-    <t>Nguyễn 7</t>
-  </si>
-  <si>
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>3.429.000</t>
+    <t>39.938.000</t>
   </si>
 </sst>
 </file>
@@ -531,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>20</v>
@@ -690,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -699,26 +726,26 @@
         <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>26</v>
       </c>
@@ -726,10 +753,10 @@
         <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -737,38 +764,38 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="0">
-        <v>3</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>26</v>
       </c>
@@ -776,10 +803,10 @@
         <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -787,22 +814,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>24</v>
@@ -817,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>26</v>
@@ -826,10 +853,10 @@
         <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -837,38 +864,38 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="N10" s="0" t="s">
         <v>26</v>
       </c>
@@ -876,10 +903,10 @@
         <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -887,25 +914,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>25</v>
@@ -917,7 +944,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>26</v>
@@ -926,10 +953,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -937,22 +964,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="0">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>24</v>
@@ -967,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>26</v>
@@ -976,10 +1003,10 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -987,25 +1014,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="0">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>25</v>
@@ -1040,22 +1067,22 @@
         <v>57</v>
       </c>
       <c r="C14" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>25</v>
@@ -1090,19 +1117,19 @@
         <v>61</v>
       </c>
       <c r="C15" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>24</v>
@@ -1117,7 +1144,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>26</v>
@@ -1126,10 +1153,10 @@
         <v>26</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1137,22 +1164,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>24</v>
@@ -1167,7 +1194,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>26</v>
@@ -1176,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -1187,25 +1214,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>25</v>
@@ -1217,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>26</v>
@@ -1226,10 +1253,10 @@
         <v>26</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -1237,25 +1264,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>25</v>
@@ -1267,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>26</v>
@@ -1276,10 +1303,10 @@
         <v>26</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1287,25 +1314,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>25</v>
@@ -1317,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>26</v>
@@ -1326,10 +1353,10 @@
         <v>26</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1337,25 +1364,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>25</v>
@@ -1367,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>26</v>
@@ -1376,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -1387,25 +1414,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>25</v>
@@ -1417,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>26</v>
@@ -1426,10 +1453,10 @@
         <v>26</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1437,25 +1464,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>25</v>
@@ -1467,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>26</v>
@@ -1476,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -1487,25 +1514,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C23" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>25</v>
@@ -1517,7 +1544,7 @@
         <v>26</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>26</v>
@@ -1526,10 +1553,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1537,25 +1564,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>25</v>
@@ -1567,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>26</v>
@@ -1576,10 +1603,10 @@
         <v>26</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1587,25 +1614,25 @@
         <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>25</v>
@@ -1617,7 +1644,7 @@
         <v>26</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>26</v>
@@ -1626,10 +1653,10 @@
         <v>26</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -1637,25 +1664,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>25</v>
@@ -1667,7 +1694,7 @@
         <v>26</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>26</v>
@@ -1676,10 +1703,10 @@
         <v>26</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1687,25 +1714,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>25</v>
@@ -1717,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>26</v>
@@ -1726,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -1737,22 +1764,22 @@
         <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>24</v>
@@ -1767,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>26</v>
@@ -1776,10 +1803,10 @@
         <v>26</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1787,25 +1814,25 @@
         <v>23</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C29" s="0">
         <v>3</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>25</v>
@@ -1817,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>26</v>
@@ -1826,10 +1853,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1837,22 +1864,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="0">
-        <v>4</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>24</v>
@@ -1867,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>26</v>
@@ -1876,10 +1903,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1887,22 +1914,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C31" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>24</v>
@@ -1917,7 +1944,7 @@
         <v>26</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>26</v>
@@ -1926,10 +1953,10 @@
         <v>26</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1937,22 +1964,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C32" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>24</v>
@@ -1967,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>26</v>
@@ -1976,10 +2003,10 @@
         <v>26</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -1987,38 +2014,38 @@
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0">
         <v>5</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="N33" s="0" t="s">
         <v>26</v>
       </c>
@@ -2026,10 +2053,10 @@
         <v>26</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -2037,22 +2064,22 @@
         <v>28</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>24</v>
@@ -2067,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>26</v>
@@ -2076,10 +2103,10 @@
         <v>26</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -2087,25 +2114,25 @@
         <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C35" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>25</v>
@@ -2117,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>26</v>
@@ -2126,10 +2153,10 @@
         <v>26</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -2137,25 +2164,25 @@
         <v>30</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C36" s="0">
         <v>4</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>25</v>
@@ -2167,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>26</v>
@@ -2176,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -2187,25 +2214,22 @@
         <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C37" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="H37" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>25</v>
@@ -2217,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>26</v>
@@ -2226,10 +2250,10 @@
         <v>26</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2237,25 +2261,22 @@
         <v>32</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C38" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>25</v>
@@ -2267,7 +2288,7 @@
         <v>26</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>26</v>
@@ -2276,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -2287,25 +2308,25 @@
         <v>33</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0">
         <v>4</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>25</v>
@@ -2317,7 +2338,7 @@
         <v>26</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>26</v>
@@ -2326,10 +2347,10 @@
         <v>26</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
@@ -2337,25 +2358,25 @@
         <v>34</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="C40" s="0">
         <v>3</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>25</v>
@@ -2367,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>26</v>
@@ -2376,10 +2397,10 @@
         <v>26</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41">
@@ -2387,25 +2408,25 @@
         <v>35</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C41" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>25</v>
@@ -2417,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>26</v>
@@ -2426,10 +2447,10 @@
         <v>26</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
@@ -2437,25 +2458,25 @@
         <v>36</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C42" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>25</v>
@@ -2467,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>26</v>
@@ -2476,141 +2497,41 @@
         <v>26</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>37</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="0">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P43" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>38</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="0">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="6" t="s">
-        <v>133</v>
+      <c r="A44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="Q46:Q46"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="Q44:Q44"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
